--- a/Data/全部数据/原始excel/平静/LZ-调节13hz_20160603_152245_ASIC_EEG.xlsx
+++ b/Data/全部数据/原始excel/平静/LZ-调节13hz_20160603_152245_ASIC_EEG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\计算所\EEG\Matlab Code\tempASIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\脑电波\lz\全部数据\原始excel\平静\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="5760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -438,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W897"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W898"/>
+    <sheetView topLeftCell="A888" workbookViewId="0">
+      <selection activeCell="K910" sqref="K910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
